--- a/study_question_template.xlsx
+++ b/study_question_template.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saehw\Downloads\cmder\workspace\python_101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7807C790-5988-4E5C-8BD6-FB5FDFD4C8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E128263-EEFD-49C9-B53E-604855F31055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,28 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>계층(Level)</t>
-  </si>
-  <si>
-    <t>질문(Question)</t>
-  </si>
-  <si>
-    <t>정답(Answer)</t>
-  </si>
-  <si>
-    <t>문제화 여부(Make Question?)</t>
-  </si>
-  <si>
-    <t>힌트(Hint, 선택)</t>
-  </si>
-  <si>
-    <t>청킹 그룹(Chunk Group, 선택)</t>
-  </si>
-  <si>
-    <t>태그(Tag, 선택)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"> a.endswith</t>
   </si>
@@ -64,86 +42,79 @@
   </si>
   <si>
     <t xml:space="preserve">a.find('abc') </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문자열 a는 'abc'로 시작하는 문자열 여부 반환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a.startswith ('abc')</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>좌우 공백없앰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">a.strip() </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a.rstrip()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오른쪽 공백없앰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a.lstrip()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>왼쪽 공백을 없앰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문자열이 숫자인지 여부 반환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a.isdigit()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문자열이 소문자인지 여부 반환</t>
   </si>
   <si>
     <t>a.islower()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문자열 a는 'abc'로 끝나는 문자열 여부 반환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -167,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -175,31 +146,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -503,141 +456,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D41210-22C6-4A85-B3BA-9DF97FD632D4}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.0625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.4375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.9375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D41210-22C6-4A85-B3BA-9DF97FD632D4}">
-  <dimension ref="F7:G15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.6">
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.6">
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.6">
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.6">
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.6">
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.6">
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.6">
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.6">
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.6">
-      <c r="F15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>